--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -855,6 +855,9 @@
       <c r="C51" t="str">
         <v>680_锦鲤黄_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -916,7 +919,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0603155405305501258505151010505826127151405015522222030551010102512108108201000000</v>
+        <v>0603155405305501258505151010505826127151405015522222030551010102512108108201000001</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -856,7 +856,7 @@
         <v>680_锦鲤黄_undefined_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +919,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0603155405305501258505151010505826127151405015522222030551010102512108108201000001</v>
+        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010000012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -850,6 +850,9 @@
       <c r="C50" t="str">
         <v>682_锦鲤粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F50" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" t="str">
@@ -919,7 +922,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010000012</v>
+        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010000112</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -851,7 +851,7 @@
         <v>682_锦鲤粉_undefined_undefined_1bunch</v>
       </c>
       <c r="F50" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -922,7 +922,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010000112</v>
+        <v>060315540530550125850515101050582612715140501552222203055101010251210810820100001212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -845,6 +845,9 @@
       <c r="C49" t="str">
         <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
       </c>
+      <c r="F49" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="C50" t="str">
@@ -922,7 +925,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>060315540530550125850515101050582612715140501552222203055101010251210810820100001212</v>
+        <v>060315540530550125850515101050582612715140501552222203055101010251210810820100011212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -846,7 +846,7 @@
         <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
       </c>
       <c r="F49" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -925,7 +925,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>060315540530550125850515101050582612715140501552222203055101010251210810820100011212</v>
+        <v>0603155405305501258505151010505826127151405015522222030551010102512108108201000121212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -840,6 +840,9 @@
       <c r="C48" t="str">
         <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
       </c>
+      <c r="F48" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="C49" t="str">
@@ -925,7 +928,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0603155405305501258505151010505826127151405015522222030551010102512108108201000121212</v>
+        <v>0603155405305501258505151010505826127151405015522222030551010102512108108201001121212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -841,7 +841,7 @@
         <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
       </c>
       <c r="F48" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -928,7 +928,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0603155405305501258505151010505826127151405015522222030551010102512108108201001121212</v>
+        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010012121212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -835,6 +835,9 @@
       <c r="C47" t="str">
         <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F47" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="C48" t="str">
@@ -928,7 +931,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010012121212</v>
+        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010112121212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -836,7 +836,7 @@
         <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
       </c>
       <c r="F47" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -931,7 +931,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06031554053055012585051510105058261271514050155222220305510101025121081082010112121212</v>
+        <v>060315540530550125850515101050582612715140501552222203055101010251210810820101212121212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-24.xlsx
@@ -933,6 +933,9 @@
       <c r="G2" t="str">
         <v>060315540530550125850515101050582612715140501552222203055101010251210810820101212121212</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
